--- a/mdpi_annotated/biom12060834/biom12060834_makarova/biom12060834_makarova.xlsx
+++ b/mdpi_annotated/biom12060834/biom12060834_makarova/biom12060834_makarova.xlsx
@@ -2888,7 +2888,7 @@
         <v>7</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C108" s="2">
         <v>4.0</v>
